--- a/test/toc_result.xlsx
+++ b/test/toc_result.xlsx
@@ -149,6 +149,105 @@
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <plotArea>
+      <scatterChart>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'IC_standard'!B2</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="dot"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'IC_standard'!$A$1:$A$4</f>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'IC_standard'!$B$3:$B$4</f>
+            </numRef>
+          </yVal>
+        </ser>
+        <axId val="10"/>
+        <axId val="20"/>
+      </scatterChart>
+      <valAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>5</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="1" name="Chart 1"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -440,7 +539,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C64"/>
+  <dimension ref="A1:F64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +563,21 @@
           <t>IC_Ave.Area</t>
         </is>
       </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>TC.Conc(ppm)</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>IC.Conc(ppm)</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>TOC.Conc(ppm)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -475,6 +589,18 @@
       <c r="C2" t="n">
         <v>190.05</v>
       </c>
+      <c r="D2">
+        <f>B2*TC_standard!E1+TC_standard!E2</f>
+        <v/>
+      </c>
+      <c r="E2">
+        <f>C2*IC_standard!E1+IC_standard!E2</f>
+        <v/>
+      </c>
+      <c r="F2">
+        <f>D2 - E2</f>
+        <v/>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -486,6 +612,18 @@
       <c r="C3" t="n">
         <v>174.85</v>
       </c>
+      <c r="D3">
+        <f>B3*TC_standard!E1+TC_standard!E2</f>
+        <v/>
+      </c>
+      <c r="E3">
+        <f>C3*IC_standard!E1+IC_standard!E2</f>
+        <v/>
+      </c>
+      <c r="F3">
+        <f>D3 - E3</f>
+        <v/>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -497,6 +635,18 @@
       <c r="C4" t="n">
         <v>186.65</v>
       </c>
+      <c r="D4">
+        <f>B4*TC_standard!E1+TC_standard!E2</f>
+        <v/>
+      </c>
+      <c r="E4">
+        <f>C4*IC_standard!E1+IC_standard!E2</f>
+        <v/>
+      </c>
+      <c r="F4">
+        <f>D4 - E4</f>
+        <v/>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -508,6 +658,18 @@
       <c r="C5" t="n">
         <v>180.6</v>
       </c>
+      <c r="D5">
+        <f>B5*TC_standard!E1+TC_standard!E2</f>
+        <v/>
+      </c>
+      <c r="E5">
+        <f>C5*IC_standard!E1+IC_standard!E2</f>
+        <v/>
+      </c>
+      <c r="F5">
+        <f>D5 - E5</f>
+        <v/>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -519,6 +681,18 @@
       <c r="C6" t="n">
         <v>127.4</v>
       </c>
+      <c r="D6">
+        <f>B6*TC_standard!E1+TC_standard!E2</f>
+        <v/>
+      </c>
+      <c r="E6">
+        <f>C6*IC_standard!E1+IC_standard!E2</f>
+        <v/>
+      </c>
+      <c r="F6">
+        <f>D6 - E6</f>
+        <v/>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -530,6 +704,18 @@
       <c r="C7" t="n">
         <v>983.5</v>
       </c>
+      <c r="D7">
+        <f>B7*TC_standard!E1+TC_standard!E2</f>
+        <v/>
+      </c>
+      <c r="E7">
+        <f>C7*IC_standard!E1+IC_standard!E2</f>
+        <v/>
+      </c>
+      <c r="F7">
+        <f>D7 - E7</f>
+        <v/>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -541,6 +727,18 @@
       <c r="C8" t="n">
         <v>222.45</v>
       </c>
+      <c r="D8">
+        <f>B8*TC_standard!E1+TC_standard!E2</f>
+        <v/>
+      </c>
+      <c r="E8">
+        <f>C8*IC_standard!E1+IC_standard!E2</f>
+        <v/>
+      </c>
+      <c r="F8">
+        <f>D8 - E8</f>
+        <v/>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -552,6 +750,18 @@
       <c r="C9" t="n">
         <v>147.6</v>
       </c>
+      <c r="D9">
+        <f>B9*TC_standard!E1+TC_standard!E2</f>
+        <v/>
+      </c>
+      <c r="E9">
+        <f>C9*IC_standard!E1+IC_standard!E2</f>
+        <v/>
+      </c>
+      <c r="F9">
+        <f>D9 - E9</f>
+        <v/>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -563,6 +773,18 @@
       <c r="C10" t="n">
         <v>190.3</v>
       </c>
+      <c r="D10">
+        <f>B10*TC_standard!E1+TC_standard!E2</f>
+        <v/>
+      </c>
+      <c r="E10">
+        <f>C10*IC_standard!E1+IC_standard!E2</f>
+        <v/>
+      </c>
+      <c r="F10">
+        <f>D10 - E10</f>
+        <v/>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -574,6 +796,18 @@
       <c r="C11" t="n">
         <v>146.45</v>
       </c>
+      <c r="D11">
+        <f>B11*TC_standard!E1+TC_standard!E2</f>
+        <v/>
+      </c>
+      <c r="E11">
+        <f>C11*IC_standard!E1+IC_standard!E2</f>
+        <v/>
+      </c>
+      <c r="F11">
+        <f>D11 - E11</f>
+        <v/>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -585,6 +819,18 @@
       <c r="C12" t="n">
         <v>153.75</v>
       </c>
+      <c r="D12">
+        <f>B12*TC_standard!E1+TC_standard!E2</f>
+        <v/>
+      </c>
+      <c r="E12">
+        <f>C12*IC_standard!E1+IC_standard!E2</f>
+        <v/>
+      </c>
+      <c r="F12">
+        <f>D12 - E12</f>
+        <v/>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -596,6 +842,18 @@
       <c r="C13" t="n">
         <v>257.85</v>
       </c>
+      <c r="D13">
+        <f>B13*TC_standard!E1+TC_standard!E2</f>
+        <v/>
+      </c>
+      <c r="E13">
+        <f>C13*IC_standard!E1+IC_standard!E2</f>
+        <v/>
+      </c>
+      <c r="F13">
+        <f>D13 - E13</f>
+        <v/>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -607,6 +865,18 @@
       <c r="C14" t="n">
         <v>270.7</v>
       </c>
+      <c r="D14">
+        <f>B14*TC_standard!E1+TC_standard!E2</f>
+        <v/>
+      </c>
+      <c r="E14">
+        <f>C14*IC_standard!E1+IC_standard!E2</f>
+        <v/>
+      </c>
+      <c r="F14">
+        <f>D14 - E14</f>
+        <v/>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -618,6 +888,18 @@
       <c r="C15" t="n">
         <v>282.65</v>
       </c>
+      <c r="D15">
+        <f>B15*TC_standard!E1+TC_standard!E2</f>
+        <v/>
+      </c>
+      <c r="E15">
+        <f>C15*IC_standard!E1+IC_standard!E2</f>
+        <v/>
+      </c>
+      <c r="F15">
+        <f>D15 - E15</f>
+        <v/>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -629,6 +911,18 @@
       <c r="C16" t="n">
         <v>222.65</v>
       </c>
+      <c r="D16">
+        <f>B16*TC_standard!E1+TC_standard!E2</f>
+        <v/>
+      </c>
+      <c r="E16">
+        <f>C16*IC_standard!E1+IC_standard!E2</f>
+        <v/>
+      </c>
+      <c r="F16">
+        <f>D16 - E16</f>
+        <v/>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -640,6 +934,18 @@
       <c r="C17" t="n">
         <v>325.2</v>
       </c>
+      <c r="D17">
+        <f>B17*TC_standard!E1+TC_standard!E2</f>
+        <v/>
+      </c>
+      <c r="E17">
+        <f>C17*IC_standard!E1+IC_standard!E2</f>
+        <v/>
+      </c>
+      <c r="F17">
+        <f>D17 - E17</f>
+        <v/>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -651,6 +957,18 @@
       <c r="C18" t="n">
         <v>998.5</v>
       </c>
+      <c r="D18">
+        <f>B18*TC_standard!E1+TC_standard!E2</f>
+        <v/>
+      </c>
+      <c r="E18">
+        <f>C18*IC_standard!E1+IC_standard!E2</f>
+        <v/>
+      </c>
+      <c r="F18">
+        <f>D18 - E18</f>
+        <v/>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -662,6 +980,18 @@
       <c r="C19" t="n">
         <v>274.9</v>
       </c>
+      <c r="D19">
+        <f>B19*TC_standard!E1+TC_standard!E2</f>
+        <v/>
+      </c>
+      <c r="E19">
+        <f>C19*IC_standard!E1+IC_standard!E2</f>
+        <v/>
+      </c>
+      <c r="F19">
+        <f>D19 - E19</f>
+        <v/>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -673,6 +1003,18 @@
       <c r="C20" t="n">
         <v>274</v>
       </c>
+      <c r="D20">
+        <f>B20*TC_standard!E1+TC_standard!E2</f>
+        <v/>
+      </c>
+      <c r="E20">
+        <f>C20*IC_standard!E1+IC_standard!E2</f>
+        <v/>
+      </c>
+      <c r="F20">
+        <f>D20 - E20</f>
+        <v/>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -684,6 +1026,18 @@
       <c r="C21" t="n">
         <v>293.5</v>
       </c>
+      <c r="D21">
+        <f>B21*TC_standard!E1+TC_standard!E2</f>
+        <v/>
+      </c>
+      <c r="E21">
+        <f>C21*IC_standard!E1+IC_standard!E2</f>
+        <v/>
+      </c>
+      <c r="F21">
+        <f>D21 - E21</f>
+        <v/>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -695,6 +1049,18 @@
       <c r="C22" t="n">
         <v>201.25</v>
       </c>
+      <c r="D22">
+        <f>B22*TC_standard!E1+TC_standard!E2</f>
+        <v/>
+      </c>
+      <c r="E22">
+        <f>C22*IC_standard!E1+IC_standard!E2</f>
+        <v/>
+      </c>
+      <c r="F22">
+        <f>D22 - E22</f>
+        <v/>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -706,6 +1072,18 @@
       <c r="C23" t="n">
         <v>304.15</v>
       </c>
+      <c r="D23">
+        <f>B23*TC_standard!E1+TC_standard!E2</f>
+        <v/>
+      </c>
+      <c r="E23">
+        <f>C23*IC_standard!E1+IC_standard!E2</f>
+        <v/>
+      </c>
+      <c r="F23">
+        <f>D23 - E23</f>
+        <v/>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -717,6 +1095,18 @@
       <c r="C24" t="n">
         <v>292</v>
       </c>
+      <c r="D24">
+        <f>B24*TC_standard!E1+TC_standard!E2</f>
+        <v/>
+      </c>
+      <c r="E24">
+        <f>C24*IC_standard!E1+IC_standard!E2</f>
+        <v/>
+      </c>
+      <c r="F24">
+        <f>D24 - E24</f>
+        <v/>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -728,6 +1118,18 @@
       <c r="C25" t="n">
         <v>970.2</v>
       </c>
+      <c r="D25">
+        <f>B25*TC_standard!E1+TC_standard!E2</f>
+        <v/>
+      </c>
+      <c r="E25">
+        <f>C25*IC_standard!E1+IC_standard!E2</f>
+        <v/>
+      </c>
+      <c r="F25">
+        <f>D25 - E25</f>
+        <v/>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -739,6 +1141,18 @@
       <c r="C26" t="n">
         <v>328.2</v>
       </c>
+      <c r="D26">
+        <f>B26*TC_standard!E1+TC_standard!E2</f>
+        <v/>
+      </c>
+      <c r="E26">
+        <f>C26*IC_standard!E1+IC_standard!E2</f>
+        <v/>
+      </c>
+      <c r="F26">
+        <f>D26 - E26</f>
+        <v/>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -750,6 +1164,18 @@
       <c r="C27" t="n">
         <v>270</v>
       </c>
+      <c r="D27">
+        <f>B27*TC_standard!E1+TC_standard!E2</f>
+        <v/>
+      </c>
+      <c r="E27">
+        <f>C27*IC_standard!E1+IC_standard!E2</f>
+        <v/>
+      </c>
+      <c r="F27">
+        <f>D27 - E27</f>
+        <v/>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -761,6 +1187,18 @@
       <c r="C28" t="n">
         <v>55.24</v>
       </c>
+      <c r="D28">
+        <f>B28*TC_standard!E1+TC_standard!E2</f>
+        <v/>
+      </c>
+      <c r="E28">
+        <f>C28*IC_standard!E1+IC_standard!E2</f>
+        <v/>
+      </c>
+      <c r="F28">
+        <f>D28 - E28</f>
+        <v/>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -772,6 +1210,18 @@
       <c r="C29" t="n">
         <v>53.285</v>
       </c>
+      <c r="D29">
+        <f>B29*TC_standard!E1+TC_standard!E2</f>
+        <v/>
+      </c>
+      <c r="E29">
+        <f>C29*IC_standard!E1+IC_standard!E2</f>
+        <v/>
+      </c>
+      <c r="F29">
+        <f>D29 - E29</f>
+        <v/>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -783,6 +1233,18 @@
       <c r="C30" t="n">
         <v>52.865</v>
       </c>
+      <c r="D30">
+        <f>B30*TC_standard!E1+TC_standard!E2</f>
+        <v/>
+      </c>
+      <c r="E30">
+        <f>C30*IC_standard!E1+IC_standard!E2</f>
+        <v/>
+      </c>
+      <c r="F30">
+        <f>D30 - E30</f>
+        <v/>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -794,6 +1256,18 @@
       <c r="C31" t="n">
         <v>55.97</v>
       </c>
+      <c r="D31">
+        <f>B31*TC_standard!E1+TC_standard!E2</f>
+        <v/>
+      </c>
+      <c r="E31">
+        <f>C31*IC_standard!E1+IC_standard!E2</f>
+        <v/>
+      </c>
+      <c r="F31">
+        <f>D31 - E31</f>
+        <v/>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -805,6 +1279,18 @@
       <c r="C32" t="n">
         <v>41.755</v>
       </c>
+      <c r="D32">
+        <f>B32*TC_standard!E1+TC_standard!E2</f>
+        <v/>
+      </c>
+      <c r="E32">
+        <f>C32*IC_standard!E1+IC_standard!E2</f>
+        <v/>
+      </c>
+      <c r="F32">
+        <f>D32 - E32</f>
+        <v/>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -816,6 +1302,18 @@
       <c r="C33" t="n">
         <v>59.51</v>
       </c>
+      <c r="D33">
+        <f>B33*TC_standard!E1+TC_standard!E2</f>
+        <v/>
+      </c>
+      <c r="E33">
+        <f>C33*IC_standard!E1+IC_standard!E2</f>
+        <v/>
+      </c>
+      <c r="F33">
+        <f>D33 - E33</f>
+        <v/>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -827,6 +1325,18 @@
       <c r="C34" t="n">
         <v>186.75</v>
       </c>
+      <c r="D34">
+        <f>B34*TC_standard!E1+TC_standard!E2</f>
+        <v/>
+      </c>
+      <c r="E34">
+        <f>C34*IC_standard!E1+IC_standard!E2</f>
+        <v/>
+      </c>
+      <c r="F34">
+        <f>D34 - E34</f>
+        <v/>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -838,6 +1348,18 @@
       <c r="C35" t="n">
         <v>275.8</v>
       </c>
+      <c r="D35">
+        <f>B35*TC_standard!E1+TC_standard!E2</f>
+        <v/>
+      </c>
+      <c r="E35">
+        <f>C35*IC_standard!E1+IC_standard!E2</f>
+        <v/>
+      </c>
+      <c r="F35">
+        <f>D35 - E35</f>
+        <v/>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -849,6 +1371,18 @@
       <c r="C36" t="n">
         <v>225.35</v>
       </c>
+      <c r="D36">
+        <f>B36*TC_standard!E1+TC_standard!E2</f>
+        <v/>
+      </c>
+      <c r="E36">
+        <f>C36*IC_standard!E1+IC_standard!E2</f>
+        <v/>
+      </c>
+      <c r="F36">
+        <f>D36 - E36</f>
+        <v/>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -860,6 +1394,18 @@
       <c r="C37" t="n">
         <v>221.4</v>
       </c>
+      <c r="D37">
+        <f>B37*TC_standard!E1+TC_standard!E2</f>
+        <v/>
+      </c>
+      <c r="E37">
+        <f>C37*IC_standard!E1+IC_standard!E2</f>
+        <v/>
+      </c>
+      <c r="F37">
+        <f>D37 - E37</f>
+        <v/>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -871,6 +1417,18 @@
       <c r="C38" t="n">
         <v>214.4</v>
       </c>
+      <c r="D38">
+        <f>B38*TC_standard!E1+TC_standard!E2</f>
+        <v/>
+      </c>
+      <c r="E38">
+        <f>C38*IC_standard!E1+IC_standard!E2</f>
+        <v/>
+      </c>
+      <c r="F38">
+        <f>D38 - E38</f>
+        <v/>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -882,6 +1440,18 @@
       <c r="C39" t="n">
         <v>227.05</v>
       </c>
+      <c r="D39">
+        <f>B39*TC_standard!E1+TC_standard!E2</f>
+        <v/>
+      </c>
+      <c r="E39">
+        <f>C39*IC_standard!E1+IC_standard!E2</f>
+        <v/>
+      </c>
+      <c r="F39">
+        <f>D39 - E39</f>
+        <v/>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -893,6 +1463,18 @@
       <c r="C40" t="n">
         <v>149.9</v>
       </c>
+      <c r="D40">
+        <f>B40*TC_standard!E1+TC_standard!E2</f>
+        <v/>
+      </c>
+      <c r="E40">
+        <f>C40*IC_standard!E1+IC_standard!E2</f>
+        <v/>
+      </c>
+      <c r="F40">
+        <f>D40 - E40</f>
+        <v/>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -904,6 +1486,18 @@
       <c r="C41" t="n">
         <v>230.45</v>
       </c>
+      <c r="D41">
+        <f>B41*TC_standard!E1+TC_standard!E2</f>
+        <v/>
+      </c>
+      <c r="E41">
+        <f>C41*IC_standard!E1+IC_standard!E2</f>
+        <v/>
+      </c>
+      <c r="F41">
+        <f>D41 - E41</f>
+        <v/>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -915,6 +1509,18 @@
       <c r="C42" t="n">
         <v>959.55</v>
       </c>
+      <c r="D42">
+        <f>B42*TC_standard!E1+TC_standard!E2</f>
+        <v/>
+      </c>
+      <c r="E42">
+        <f>C42*IC_standard!E1+IC_standard!E2</f>
+        <v/>
+      </c>
+      <c r="F42">
+        <f>D42 - E42</f>
+        <v/>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -926,6 +1532,18 @@
       <c r="C43" t="n">
         <v>277.05</v>
       </c>
+      <c r="D43">
+        <f>B43*TC_standard!E1+TC_standard!E2</f>
+        <v/>
+      </c>
+      <c r="E43">
+        <f>C43*IC_standard!E1+IC_standard!E2</f>
+        <v/>
+      </c>
+      <c r="F43">
+        <f>D43 - E43</f>
+        <v/>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -937,6 +1555,18 @@
       <c r="C44" t="n">
         <v>279.2</v>
       </c>
+      <c r="D44">
+        <f>B44*TC_standard!E1+TC_standard!E2</f>
+        <v/>
+      </c>
+      <c r="E44">
+        <f>C44*IC_standard!E1+IC_standard!E2</f>
+        <v/>
+      </c>
+      <c r="F44">
+        <f>D44 - E44</f>
+        <v/>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -948,6 +1578,18 @@
       <c r="C45" t="n">
         <v>296.4</v>
       </c>
+      <c r="D45">
+        <f>B45*TC_standard!E1+TC_standard!E2</f>
+        <v/>
+      </c>
+      <c r="E45">
+        <f>C45*IC_standard!E1+IC_standard!E2</f>
+        <v/>
+      </c>
+      <c r="F45">
+        <f>D45 - E45</f>
+        <v/>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -959,6 +1601,18 @@
       <c r="C46" t="n">
         <v>182.45</v>
       </c>
+      <c r="D46">
+        <f>B46*TC_standard!E1+TC_standard!E2</f>
+        <v/>
+      </c>
+      <c r="E46">
+        <f>C46*IC_standard!E1+IC_standard!E2</f>
+        <v/>
+      </c>
+      <c r="F46">
+        <f>D46 - E46</f>
+        <v/>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -970,6 +1624,18 @@
       <c r="C47" t="n">
         <v>320.3</v>
       </c>
+      <c r="D47">
+        <f>B47*TC_standard!E1+TC_standard!E2</f>
+        <v/>
+      </c>
+      <c r="E47">
+        <f>C47*IC_standard!E1+IC_standard!E2</f>
+        <v/>
+      </c>
+      <c r="F47">
+        <f>D47 - E47</f>
+        <v/>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -981,6 +1647,18 @@
       <c r="C48" t="n">
         <v>935.55</v>
       </c>
+      <c r="D48">
+        <f>B48*TC_standard!E1+TC_standard!E2</f>
+        <v/>
+      </c>
+      <c r="E48">
+        <f>C48*IC_standard!E1+IC_standard!E2</f>
+        <v/>
+      </c>
+      <c r="F48">
+        <f>D48 - E48</f>
+        <v/>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -992,6 +1670,18 @@
       <c r="C49" t="n">
         <v>310.85</v>
       </c>
+      <c r="D49">
+        <f>B49*TC_standard!E1+TC_standard!E2</f>
+        <v/>
+      </c>
+      <c r="E49">
+        <f>C49*IC_standard!E1+IC_standard!E2</f>
+        <v/>
+      </c>
+      <c r="F49">
+        <f>D49 - E49</f>
+        <v/>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -1003,6 +1693,18 @@
       <c r="C50" t="n">
         <v>158.65</v>
       </c>
+      <c r="D50">
+        <f>B50*TC_standard!E1+TC_standard!E2</f>
+        <v/>
+      </c>
+      <c r="E50">
+        <f>C50*IC_standard!E1+IC_standard!E2</f>
+        <v/>
+      </c>
+      <c r="F50">
+        <f>D50 - E50</f>
+        <v/>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -1014,6 +1716,18 @@
       <c r="C51" t="n">
         <v>252.5</v>
       </c>
+      <c r="D51">
+        <f>B51*TC_standard!E1+TC_standard!E2</f>
+        <v/>
+      </c>
+      <c r="E51">
+        <f>C51*IC_standard!E1+IC_standard!E2</f>
+        <v/>
+      </c>
+      <c r="F51">
+        <f>D51 - E51</f>
+        <v/>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -1025,6 +1739,18 @@
       <c r="C52" t="n">
         <v>242.6</v>
       </c>
+      <c r="D52">
+        <f>B52*TC_standard!E1+TC_standard!E2</f>
+        <v/>
+      </c>
+      <c r="E52">
+        <f>C52*IC_standard!E1+IC_standard!E2</f>
+        <v/>
+      </c>
+      <c r="F52">
+        <f>D52 - E52</f>
+        <v/>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -1036,6 +1762,18 @@
       <c r="C53" t="n">
         <v>241.2</v>
       </c>
+      <c r="D53">
+        <f>B53*TC_standard!E1+TC_standard!E2</f>
+        <v/>
+      </c>
+      <c r="E53">
+        <f>C53*IC_standard!E1+IC_standard!E2</f>
+        <v/>
+      </c>
+      <c r="F53">
+        <f>D53 - E53</f>
+        <v/>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -1047,6 +1785,18 @@
       <c r="C54" t="n">
         <v>252.9</v>
       </c>
+      <c r="D54">
+        <f>B54*TC_standard!E1+TC_standard!E2</f>
+        <v/>
+      </c>
+      <c r="E54">
+        <f>C54*IC_standard!E1+IC_standard!E2</f>
+        <v/>
+      </c>
+      <c r="F54">
+        <f>D54 - E54</f>
+        <v/>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -1058,6 +1808,18 @@
       <c r="C55" t="n">
         <v>180.85</v>
       </c>
+      <c r="D55">
+        <f>B55*TC_standard!E1+TC_standard!E2</f>
+        <v/>
+      </c>
+      <c r="E55">
+        <f>C55*IC_standard!E1+IC_standard!E2</f>
+        <v/>
+      </c>
+      <c r="F55">
+        <f>D55 - E55</f>
+        <v/>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -1069,6 +1831,18 @@
       <c r="C56" t="n">
         <v>249.15</v>
       </c>
+      <c r="D56">
+        <f>B56*TC_standard!E1+TC_standard!E2</f>
+        <v/>
+      </c>
+      <c r="E56">
+        <f>C56*IC_standard!E1+IC_standard!E2</f>
+        <v/>
+      </c>
+      <c r="F56">
+        <f>D56 - E56</f>
+        <v/>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -1080,6 +1854,18 @@
       <c r="C57" t="n">
         <v>1017.1</v>
       </c>
+      <c r="D57">
+        <f>B57*TC_standard!E1+TC_standard!E2</f>
+        <v/>
+      </c>
+      <c r="E57">
+        <f>C57*IC_standard!E1+IC_standard!E2</f>
+        <v/>
+      </c>
+      <c r="F57">
+        <f>D57 - E57</f>
+        <v/>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -1091,6 +1877,18 @@
       <c r="C58" t="n">
         <v>305.85</v>
       </c>
+      <c r="D58">
+        <f>B58*TC_standard!E1+TC_standard!E2</f>
+        <v/>
+      </c>
+      <c r="E58">
+        <f>C58*IC_standard!E1+IC_standard!E2</f>
+        <v/>
+      </c>
+      <c r="F58">
+        <f>D58 - E58</f>
+        <v/>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -1102,6 +1900,18 @@
       <c r="C59" t="n">
         <v>296.5</v>
       </c>
+      <c r="D59">
+        <f>B59*TC_standard!E1+TC_standard!E2</f>
+        <v/>
+      </c>
+      <c r="E59">
+        <f>C59*IC_standard!E1+IC_standard!E2</f>
+        <v/>
+      </c>
+      <c r="F59">
+        <f>D59 - E59</f>
+        <v/>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -1113,6 +1923,18 @@
       <c r="C60" t="n">
         <v>286.35</v>
       </c>
+      <c r="D60">
+        <f>B60*TC_standard!E1+TC_standard!E2</f>
+        <v/>
+      </c>
+      <c r="E60">
+        <f>C60*IC_standard!E1+IC_standard!E2</f>
+        <v/>
+      </c>
+      <c r="F60">
+        <f>D60 - E60</f>
+        <v/>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -1124,6 +1946,18 @@
       <c r="C61" t="n">
         <v>287.55</v>
       </c>
+      <c r="D61">
+        <f>B61*TC_standard!E1+TC_standard!E2</f>
+        <v/>
+      </c>
+      <c r="E61">
+        <f>C61*IC_standard!E1+IC_standard!E2</f>
+        <v/>
+      </c>
+      <c r="F61">
+        <f>D61 - E61</f>
+        <v/>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -1135,6 +1969,18 @@
       <c r="C62" t="n">
         <v>200.5</v>
       </c>
+      <c r="D62">
+        <f>B62*TC_standard!E1+TC_standard!E2</f>
+        <v/>
+      </c>
+      <c r="E62">
+        <f>C62*IC_standard!E1+IC_standard!E2</f>
+        <v/>
+      </c>
+      <c r="F62">
+        <f>D62 - E62</f>
+        <v/>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -1146,6 +1992,18 @@
       <c r="C63" t="n">
         <v>276.65</v>
       </c>
+      <c r="D63">
+        <f>B63*TC_standard!E1+TC_standard!E2</f>
+        <v/>
+      </c>
+      <c r="E63">
+        <f>C63*IC_standard!E1+IC_standard!E2</f>
+        <v/>
+      </c>
+      <c r="F63">
+        <f>D63 - E63</f>
+        <v/>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -1156,6 +2014,18 @@
       </c>
       <c r="C64" t="n">
         <v>1034.5</v>
+      </c>
+      <c r="D64">
+        <f>B64*TC_standard!E1+TC_standard!E2</f>
+        <v/>
+      </c>
+      <c r="E64">
+        <f>C64*IC_standard!E1+IC_standard!E2</f>
+        <v/>
+      </c>
+      <c r="F64">
+        <f>D64 - E64</f>
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -1194,7 +2064,7 @@
         </is>
       </c>
       <c r="E1">
-        <f>SLOPE(A2:A4,B2:B4)</f>
+        <f>SLOPE(B2:B4,A2:A4)</f>
         <v/>
       </c>
     </row>
@@ -1211,7 +2081,7 @@
         </is>
       </c>
       <c r="E2">
-        <f>INTERCEPT(A2:A4,B2:B4)</f>
+        <f>INTERCEPT(B2:B4,A2:A4)</f>
         <v/>
       </c>
     </row>
@@ -1228,7 +2098,7 @@
         </is>
       </c>
       <c r="E3">
-        <f>RSQ(A2:A4,B2:B4)</f>
+        <f>RSQ(B2:B4,A2:A4)</f>
         <v/>
       </c>
     </row>
@@ -1276,7 +2146,7 @@
         </is>
       </c>
       <c r="E1">
-        <f>SLOPE(A2:A4,B2:B4)</f>
+        <f>SLOPE(B2:B4,A2:A4)</f>
         <v/>
       </c>
     </row>
@@ -1293,7 +2163,7 @@
         </is>
       </c>
       <c r="E2">
-        <f>INTERCEPT(A2:A4,B2:B4)</f>
+        <f>INTERCEPT(B2:B4,A2:A4)</f>
         <v/>
       </c>
     </row>
@@ -1310,7 +2180,7 @@
         </is>
       </c>
       <c r="E3">
-        <f>RSQ(A2:A4,B2:B4)</f>
+        <f>RSQ(B2:B4,A2:A4)</f>
         <v/>
       </c>
     </row>
@@ -1324,5 +2194,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>
--- a/test/toc_result.xlsx
+++ b/test/toc_result.xlsx
@@ -161,11 +161,12 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'IC_standard'!B2</f>
+              <f>'TC_standard'!B1</f>
             </strRef>
           </tx>
           <spPr>
             <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:noFill/>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -177,14 +178,93 @@
               </a:ln>
             </spPr>
           </marker>
+          <trendline>
+            <trendlineType val="linear"/>
+          </trendline>
           <xVal>
             <numRef>
-              <f>'IC_standard'!$A$1:$A$4</f>
+              <f>'TC_standard'!$A$2:$A$4</f>
             </numRef>
           </xVal>
           <yVal>
             <numRef>
-              <f>'IC_standard'!$B$3:$B$4</f>
+              <f>'TC_standard'!$B$2:$B$4</f>
+            </numRef>
+          </yVal>
+        </ser>
+        <axId val="10"/>
+        <axId val="20"/>
+      </scatterChart>
+      <valAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <plotArea>
+      <scatterChart>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'IC_standard'!B1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:noFill/>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="dot"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <trendline>
+            <trendlineType val="linear"/>
+          </trendline>
+          <xVal>
+            <numRef>
+              <f>'IC_standard'!$A$2:$A$4</f>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'IC_standard'!$B$2:$B$4</f>
             </numRef>
           </yVal>
         </ser>
@@ -224,6 +304,33 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>5</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="1" name="Chart 1"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
@@ -2112,6 +2219,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>
 
